--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/15/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.19219999999999</v>
+        <v>-11.13</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.40910000000003</v>
+        <v>-21.40600000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,13 +519,13 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-13.72649999999999</v>
+        <v>-14.2788</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.05019999999999</v>
+        <v>13.03509999999999</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.67460000000001</v>
+        <v>13.73560000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.42009999999999</v>
+        <v>13.34939999999999</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.63479999999998</v>
+        <v>-20.49609999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.51240000000001</v>
+        <v>-21.36200000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.8336</v>
+        <v>12.66690000000001</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.34550000000002</v>
+        <v>-21.49470000000003</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.60540000000003</v>
+        <v>-22.52250000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
